--- a/results/I3_N5_M2_T45_C100_DepLowerLeft_s4_res.xlsx
+++ b/results/I3_N5_M2_T45_C100_DepLowerLeft_s4_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1859.399178223581</v>
+        <v>1102.108474609722</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8689999580383301</v>
+        <v>1.069000005722046</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>36.5508688405959</v>
+        <v>36.66295360775301</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>21.42637327984994</v>
+        <v>13.2160238063541</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11.53468266282439</v>
+        <v>4.661544808322667</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1538.15000000001</v>
+        <v>850</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>294.59</v>
+        <v>224</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -628,56 +628,12 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>4</v>
-      </c>
-      <c r="B7" t="n">
-        <v>2</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>4</v>
-      </c>
-      <c r="B8" t="n">
-        <v>3</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>4</v>
-      </c>
-      <c r="B9" t="n">
-        <v>4</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>4</v>
-      </c>
-      <c r="B10" t="n">
-        <v>5</v>
-      </c>
-      <c r="C10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -722,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -788,7 +744,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -868,7 +824,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -879,7 +835,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -951,7 +907,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>30</v>
+        <v>31.78397619364589</v>
       </c>
     </row>
     <row r="4">
@@ -959,7 +915,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>35.76239749718576</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5">
@@ -983,7 +939,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>9.499154610425776</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8">
@@ -1013,7 +969,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1101,13 +1057,13 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
@@ -1115,13 +1071,13 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
@@ -1129,13 +1085,13 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
@@ -1143,13 +1099,13 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B9" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>1</v>
@@ -1157,13 +1113,13 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B10" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>1</v>
@@ -1177,121 +1133,9 @@
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>3</v>
-      </c>
-      <c r="B12" t="n">
-        <v>6</v>
-      </c>
-      <c r="C12" t="n">
-        <v>2</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>3</v>
-      </c>
-      <c r="B13" t="n">
-        <v>6</v>
-      </c>
-      <c r="C13" t="n">
-        <v>3</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>3</v>
-      </c>
-      <c r="B14" t="n">
-        <v>6</v>
-      </c>
-      <c r="C14" t="n">
-        <v>4</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>4</v>
-      </c>
-      <c r="B15" t="n">
-        <v>2</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>4</v>
-      </c>
-      <c r="B16" t="n">
-        <v>2</v>
-      </c>
-      <c r="C16" t="n">
-        <v>2</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>4</v>
-      </c>
-      <c r="B17" t="n">
-        <v>2</v>
-      </c>
-      <c r="C17" t="n">
-        <v>3</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>4</v>
-      </c>
-      <c r="B18" t="n">
-        <v>2</v>
-      </c>
-      <c r="C18" t="n">
-        <v>4</v>
-      </c>
-      <c r="D18" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>4</v>
-      </c>
-      <c r="B19" t="n">
-        <v>2</v>
-      </c>
-      <c r="C19" t="n">
-        <v>5</v>
-      </c>
-      <c r="D19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1394,7 +1238,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>107.995</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8">
@@ -1405,7 +1249,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>105.51</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9">
@@ -1416,7 +1260,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>104.665</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10">
@@ -1427,7 +1271,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>104.505</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11">
@@ -1438,7 +1282,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>96.60499999999979</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12">
@@ -1449,7 +1293,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>181.9200000000014</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13">
@@ -1460,7 +1304,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>193.3549999999981</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14">
@@ -1471,7 +1315,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>195</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15">
@@ -1482,7 +1326,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>204.5200000000001</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16">
@@ -1493,7 +1337,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>193.7600000000006</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17">
@@ -1504,7 +1348,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>163.9900000000015</v>
+        <v>168</v>
       </c>
     </row>
     <row r="18">
@@ -1515,7 +1359,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>163.9099999999999</v>
+        <v>177</v>
       </c>
     </row>
     <row r="19">
@@ -1526,7 +1370,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>161.6700000000013</v>
+        <v>178</v>
       </c>
     </row>
     <row r="20">
@@ -1537,7 +1381,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>158.3650000000009</v>
+        <v>172</v>
       </c>
     </row>
     <row r="21">
@@ -1548,7 +1392,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>152.5850000000014</v>
+        <v>177</v>
       </c>
     </row>
     <row r="22">
@@ -1559,7 +1403,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>101.4099999999993</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23">
@@ -1570,7 +1414,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>110.3849999999987</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24">
@@ -1581,7 +1425,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>100.3650000000008</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25">
@@ -1592,7 +1436,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>111.0449999999998</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26">
@@ -1603,7 +1447,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>108.4900000000002</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27">
@@ -1614,7 +1458,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>41.94000000000011</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28">
@@ -1625,7 +1469,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>42.87999999999946</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29">
@@ -1636,7 +1480,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>41.35</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30">
@@ -1647,7 +1491,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>44.15999999999978</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31">
@@ -1658,7 +1502,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>40</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32">
@@ -1669,7 +1513,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>163.9900000000015</v>
+        <v>168</v>
       </c>
     </row>
     <row r="33">
@@ -1680,7 +1524,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>163.9099999999999</v>
+        <v>177</v>
       </c>
     </row>
     <row r="34">
@@ -1691,7 +1535,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>161.6700000000013</v>
+        <v>178</v>
       </c>
     </row>
     <row r="35">
@@ -1702,7 +1546,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>158.3650000000009</v>
+        <v>172</v>
       </c>
     </row>
     <row r="36">
@@ -1713,7 +1557,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>152.5850000000014</v>
+        <v>177</v>
       </c>
     </row>
     <row r="37">
@@ -1724,7 +1568,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>181.9200000000014</v>
+        <v>116</v>
       </c>
     </row>
     <row r="38">
@@ -1735,7 +1579,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>193.3549999999981</v>
+        <v>110</v>
       </c>
     </row>
     <row r="39">
@@ -1746,7 +1590,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>195</v>
+        <v>104</v>
       </c>
     </row>
     <row r="40">
@@ -1757,7 +1601,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>204.5200000000001</v>
+        <v>117</v>
       </c>
     </row>
     <row r="41">
@@ -1768,7 +1612,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>193.7600000000006</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -1815,7 +1659,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>63.99000000000154</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3">
@@ -1826,7 +1670,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>63.90999999999985</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4">
@@ -1837,7 +1681,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>61.67000000000132</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5">
@@ -1848,7 +1692,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>58.36500000000089</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6">
@@ -1859,7 +1703,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>52.58500000000137</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7">
@@ -1870,7 +1714,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>81.92000000000135</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8">
@@ -1881,7 +1725,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>93.35499999999809</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -1892,7 +1736,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>95</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
@@ -1903,7 +1747,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>104.5200000000001</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11">
@@ -1914,7 +1758,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>93.76000000000059</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -2126,7 +1970,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>3.005</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18">
@@ -2137,7 +1981,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>2.81</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19">
@@ -2148,7 +1992,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>3.645</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20">
@@ -2159,7 +2003,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>6.325</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21">
@@ -2170,7 +2014,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>5.575</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22">
@@ -2181,7 +2025,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>20.545</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23">
@@ -2192,7 +2036,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>24.885</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24">
@@ -2203,7 +2047,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>29.155</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25">
@@ -2214,7 +2058,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>24.9</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26">
@@ -2225,7 +2069,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>26.45</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -2239,7 +2083,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2310,10 +2154,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -2324,7 +2168,7 @@
         <v>2</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -2335,7 +2179,7 @@
         <v>2</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -2346,7 +2190,7 @@
         <v>2</v>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -2357,7 +2201,7 @@
         <v>2</v>
       </c>
       <c r="B10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
@@ -2365,10 +2209,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
@@ -2379,7 +2223,7 @@
         <v>3</v>
       </c>
       <c r="B12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
@@ -2390,7 +2234,7 @@
         <v>3</v>
       </c>
       <c r="B13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
@@ -2401,7 +2245,7 @@
         <v>3</v>
       </c>
       <c r="B14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C14" t="n">
         <v>1</v>
@@ -2412,7 +2256,7 @@
         <v>3</v>
       </c>
       <c r="B15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C15" t="n">
         <v>1</v>
@@ -2420,56 +2264,12 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>4</v>
-      </c>
-      <c r="B17" t="n">
-        <v>2</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>4</v>
-      </c>
-      <c r="B18" t="n">
-        <v>3</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>4</v>
-      </c>
-      <c r="B19" t="n">
-        <v>4</v>
-      </c>
-      <c r="C19" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>4</v>
-      </c>
-      <c r="B20" t="n">
-        <v>5</v>
-      </c>
-      <c r="C20" t="n">
         <v>1</v>
       </c>
     </row>
